--- a/Cleaning the data/corrected.xlsx
+++ b/Cleaning the data/corrected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,66 +513,74 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Schrute</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>White</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Schrute</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1235432345</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>298 Drugs Driveway</t>
+          <t>980 Paper Avenue, Pennsylvania, 18503</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Schrute</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Schrute</t>
+          <t>Snow</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1235432345</t>
+          <t>8766783469</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>980 Paper Avenue, Pennsylvania, 18503</t>
+          <t>123 Dragons Road</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -581,16 +589,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Snow</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Snow</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -600,12 +608,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>123 Dragons Road</t>
+          <t>98 Clue Drive</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -619,27 +627,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Winger</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Winger</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Parker</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1235455421</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1209 South Street</t>
+          <t>25th Main Street, New York</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -653,36 +665,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Holmes</t>
+          <t>Draper</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Holmes</t>
+          <t>Draper</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8766783469</t>
+          <t>1235432345</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>98 Clue Drive</t>
+          <t>2039 Main Street</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>N</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>No</t>
         </is>
       </c>
     </row>
@@ -691,14 +703,26 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1009</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+        <v>1014</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Knope</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Knope</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8766783469</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>123 Middle Earth</t>
+          <t>343 City Parkway</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -706,38 +730,42 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Flenderson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Flenderson</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1235455421</t>
+          <t>3047622467</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25th Main Street, New York</t>
+          <t>214 HR Avenue</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>N</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -751,32 +779,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gamgee</t>
+          <t>Weasley</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Gamgee</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Weasley</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1235455421</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>612 Shire Lane, Shire</t>
+          <t>2395 Hogwarts Avenue</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -785,56 +817,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Potter</t>
+          <t>Scott</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Potter</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1236439775</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2394 Hogwarts Avenue</t>
+          <t>121 Paper Avenue, Pennsylvania</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Draper</t>
+          <t>Skywalker</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Draper</t>
+          <t>Skywalker</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1235432345</t>
+          <t>8766783469</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2039 Main Street</t>
+          <t>910 Tatooine Road, Tatooine</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -843,226 +883,6 @@
         </is>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1014</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Knope</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Knope</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8766783469</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>343 City Parkway</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Flenderson</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Flenderson</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3047622467</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>214 HR Avenue</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1016</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Weasley</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Weasley</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1235455421</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2395 Hogwarts Avenue</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1017</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Scott</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1236439775</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>121 Paper Avenue, Pennsylvania</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1018</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Kent</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Kent</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3498 Super Lane</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1020</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Skywalker</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Skywalker</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>8766783469</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>910 Tatooine Road, Tatooine</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>N</t>
         </is>
